--- a/data/pca/factorExposure/factorExposure_2012-05-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-17.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01820359130186665</v>
+        <v>0.02130702761642668</v>
       </c>
       <c r="C2">
-        <v>-0.03366351153981232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02605645544825503</v>
+      </c>
+      <c r="D2">
+        <v>-0.003828390803433184</v>
+      </c>
+      <c r="E2">
+        <v>0.0270387934010135</v>
+      </c>
+      <c r="F2">
+        <v>0.0119774542109553</v>
+      </c>
+      <c r="G2">
+        <v>-0.007739783495237876</v>
+      </c>
+      <c r="H2">
+        <v>0.05128618826854167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07068750114406924</v>
+        <v>0.08003385939775864</v>
       </c>
       <c r="C4">
-        <v>-0.05985337467283599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03963820921803354</v>
+      </c>
+      <c r="D4">
+        <v>0.07015306292945551</v>
+      </c>
+      <c r="E4">
+        <v>0.002170985454585939</v>
+      </c>
+      <c r="F4">
+        <v>0.03590404613956361</v>
+      </c>
+      <c r="G4">
+        <v>0.003169373321942435</v>
+      </c>
+      <c r="H4">
+        <v>-0.02925442178897891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1010705071612516</v>
+        <v>0.1161179652032069</v>
       </c>
       <c r="C6">
-        <v>-0.06487427814249329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04084164316465951</v>
+      </c>
+      <c r="D6">
+        <v>0.01352416813517229</v>
+      </c>
+      <c r="E6">
+        <v>-0.002603309664128411</v>
+      </c>
+      <c r="F6">
+        <v>0.05610264576254467</v>
+      </c>
+      <c r="G6">
+        <v>-0.01354304605549721</v>
+      </c>
+      <c r="H6">
+        <v>0.07360167492902678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04896811784566369</v>
+        <v>0.05979265518645099</v>
       </c>
       <c r="C7">
-        <v>-0.03251914397674611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02209400976530958</v>
+      </c>
+      <c r="D7">
+        <v>0.04107937894178414</v>
+      </c>
+      <c r="E7">
+        <v>0.02333253573111348</v>
+      </c>
+      <c r="F7">
+        <v>0.03376861427227196</v>
+      </c>
+      <c r="G7">
+        <v>0.04234543705241801</v>
+      </c>
+      <c r="H7">
+        <v>-0.02721820472060379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03419909180249647</v>
+        <v>0.03881517655548011</v>
       </c>
       <c r="C8">
-        <v>-0.0224235423386561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01343705501503263</v>
+      </c>
+      <c r="D8">
+        <v>0.04007970930525701</v>
+      </c>
+      <c r="E8">
+        <v>0.006530313218197427</v>
+      </c>
+      <c r="F8">
+        <v>0.04865984355857646</v>
+      </c>
+      <c r="G8">
+        <v>-0.02325882571508723</v>
+      </c>
+      <c r="H8">
+        <v>0.02589676891340083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0649943648583122</v>
+        <v>0.07436313299480332</v>
       </c>
       <c r="C9">
-        <v>-0.04573998204712118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02724475138384254</v>
+      </c>
+      <c r="D9">
+        <v>0.06791072865227023</v>
+      </c>
+      <c r="E9">
+        <v>0.02183826284256791</v>
+      </c>
+      <c r="F9">
+        <v>0.04186527267477259</v>
+      </c>
+      <c r="G9">
+        <v>0.001230233168514166</v>
+      </c>
+      <c r="H9">
+        <v>-0.05251036056614788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03226743270125575</v>
+        <v>0.04084878119842344</v>
       </c>
       <c r="C10">
-        <v>-0.03491580467035777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03590725771124344</v>
+      </c>
+      <c r="D10">
+        <v>-0.1788125885193827</v>
+      </c>
+      <c r="E10">
+        <v>0.04908863174344866</v>
+      </c>
+      <c r="F10">
+        <v>0.0387002206641338</v>
+      </c>
+      <c r="G10">
+        <v>0.03710078994070654</v>
+      </c>
+      <c r="H10">
+        <v>0.02797226376122743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06730406063385262</v>
+        <v>0.07619185210252344</v>
       </c>
       <c r="C11">
-        <v>-0.0514570464484798</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.0313825681465981</v>
+      </c>
+      <c r="D11">
+        <v>0.06652886116759472</v>
+      </c>
+      <c r="E11">
+        <v>-0.009350854179309084</v>
+      </c>
+      <c r="F11">
+        <v>0.02890228699335436</v>
+      </c>
+      <c r="G11">
+        <v>0.01389401640908151</v>
+      </c>
+      <c r="H11">
+        <v>-0.09193720994233563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05363646030556252</v>
+        <v>0.06536724585936116</v>
       </c>
       <c r="C12">
-        <v>-0.05251586321107965</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03739555181526177</v>
+      </c>
+      <c r="D12">
+        <v>0.05110468026269642</v>
+      </c>
+      <c r="E12">
+        <v>0.009982768160098401</v>
+      </c>
+      <c r="F12">
+        <v>0.02450879222813461</v>
+      </c>
+      <c r="G12">
+        <v>0.007402244115052249</v>
+      </c>
+      <c r="H12">
+        <v>-0.0520158364143606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05806559637795477</v>
+        <v>0.06398323551869009</v>
       </c>
       <c r="C13">
-        <v>-0.04951899982038228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03025443215403023</v>
+      </c>
+      <c r="D13">
+        <v>0.03790984673545401</v>
+      </c>
+      <c r="E13">
+        <v>0.0007381795974753926</v>
+      </c>
+      <c r="F13">
+        <v>0.006325426056594622</v>
+      </c>
+      <c r="G13">
+        <v>0.001902556393543519</v>
+      </c>
+      <c r="H13">
+        <v>-0.06208044001036998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03153444138084889</v>
+        <v>0.04086392390948294</v>
       </c>
       <c r="C14">
-        <v>-0.03219140107419542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02545113309621818</v>
+      </c>
+      <c r="D14">
+        <v>0.006849710247362688</v>
+      </c>
+      <c r="E14">
+        <v>0.02089255761493884</v>
+      </c>
+      <c r="F14">
+        <v>0.01650602463924329</v>
+      </c>
+      <c r="G14">
+        <v>-0.007044993065181955</v>
+      </c>
+      <c r="H14">
+        <v>-0.0607748184870908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03955724599731729</v>
+        <v>0.03973970839888791</v>
       </c>
       <c r="C15">
-        <v>-0.01068563244937408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.001088338425704828</v>
+      </c>
+      <c r="D15">
+        <v>0.008766520683829299</v>
+      </c>
+      <c r="E15">
+        <v>0.03978743404130707</v>
+      </c>
+      <c r="F15">
+        <v>-0.001230081271444347</v>
+      </c>
+      <c r="G15">
+        <v>-0.02114307992082602</v>
+      </c>
+      <c r="H15">
+        <v>-0.05368365492553544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05631575978717585</v>
+        <v>0.064896908442355</v>
       </c>
       <c r="C16">
-        <v>-0.04484929083957244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.0291095405951953</v>
+      </c>
+      <c r="D16">
+        <v>0.06207290557846826</v>
+      </c>
+      <c r="E16">
+        <v>0.001395320221806951</v>
+      </c>
+      <c r="F16">
+        <v>0.02581967825587269</v>
+      </c>
+      <c r="G16">
+        <v>0.006049778092260832</v>
+      </c>
+      <c r="H16">
+        <v>-0.05609351192386596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06145050071590499</v>
+        <v>0.06203131488057412</v>
       </c>
       <c r="C20">
-        <v>-0.03845255121800568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01761657939932388</v>
+      </c>
+      <c r="D20">
+        <v>0.05294267260581963</v>
+      </c>
+      <c r="E20">
+        <v>0.01865104948774737</v>
+      </c>
+      <c r="F20">
+        <v>0.02700799571562742</v>
+      </c>
+      <c r="G20">
+        <v>0.004502691147007251</v>
+      </c>
+      <c r="H20">
+        <v>-0.04818659079197914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02506907057077473</v>
+        <v>0.02535493532231025</v>
       </c>
       <c r="C21">
-        <v>-0.002813173044459278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.005352998987873107</v>
+      </c>
+      <c r="D21">
+        <v>0.03385494135365719</v>
+      </c>
+      <c r="E21">
+        <v>0.07655125787567774</v>
+      </c>
+      <c r="F21">
+        <v>-0.0142939319176057</v>
+      </c>
+      <c r="G21">
+        <v>-0.01089852785367042</v>
+      </c>
+      <c r="H21">
+        <v>0.01896810331774983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06788023384962671</v>
+        <v>0.06235068491227772</v>
       </c>
       <c r="C22">
-        <v>-0.0667639532630401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03866289232748934</v>
+      </c>
+      <c r="D22">
+        <v>0.09647772988545394</v>
+      </c>
+      <c r="E22">
+        <v>0.6099639444806843</v>
+      </c>
+      <c r="F22">
+        <v>-0.1453580257969542</v>
+      </c>
+      <c r="G22">
+        <v>0.01493861351608878</v>
+      </c>
+      <c r="H22">
+        <v>0.1315005749506024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06894976530990735</v>
+        <v>0.06283242327892741</v>
       </c>
       <c r="C23">
-        <v>-0.06598379805096589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03751484227246014</v>
+      </c>
+      <c r="D23">
+        <v>0.09728529090324264</v>
+      </c>
+      <c r="E23">
+        <v>0.609038276708655</v>
+      </c>
+      <c r="F23">
+        <v>-0.1446685134955005</v>
+      </c>
+      <c r="G23">
+        <v>0.01356999262303774</v>
+      </c>
+      <c r="H23">
+        <v>0.1268312499695022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06577853815726684</v>
+        <v>0.0757437499801438</v>
       </c>
       <c r="C24">
-        <v>-0.05355934105235519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.0340305454060735</v>
+      </c>
+      <c r="D24">
+        <v>0.06332212273445804</v>
+      </c>
+      <c r="E24">
+        <v>0.009070829188833033</v>
+      </c>
+      <c r="F24">
+        <v>0.03711166656139799</v>
+      </c>
+      <c r="G24">
+        <v>0.0001328906512475972</v>
+      </c>
+      <c r="H24">
+        <v>-0.06457265158605457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0657160484086486</v>
+        <v>0.07566146439396387</v>
       </c>
       <c r="C25">
-        <v>-0.0594296497319623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03948046423657454</v>
+      </c>
+      <c r="D25">
+        <v>0.06114618501262319</v>
+      </c>
+      <c r="E25">
+        <v>0.01397271927795824</v>
+      </c>
+      <c r="F25">
+        <v>0.03416690387987601</v>
+      </c>
+      <c r="G25">
+        <v>-0.01121995050168546</v>
+      </c>
+      <c r="H25">
+        <v>-0.07162215608518685</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03988406319024723</v>
+        <v>0.0443550714402544</v>
       </c>
       <c r="C26">
-        <v>-0.01257737856478525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.0040532594784876</v>
+      </c>
+      <c r="D26">
+        <v>0.02847211849651382</v>
+      </c>
+      <c r="E26">
+        <v>0.03882158723436457</v>
+      </c>
+      <c r="F26">
+        <v>0.02402373530718449</v>
+      </c>
+      <c r="G26">
+        <v>0.00882268028641418</v>
+      </c>
+      <c r="H26">
+        <v>-0.06347620330476486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05934556899770476</v>
+        <v>0.07598552306773826</v>
       </c>
       <c r="C28">
-        <v>-0.07397515193545207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07256984137391653</v>
+      </c>
+      <c r="D28">
+        <v>-0.3164795427318143</v>
+      </c>
+      <c r="E28">
+        <v>0.03573488938363532</v>
+      </c>
+      <c r="F28">
+        <v>0.05228506692853694</v>
+      </c>
+      <c r="G28">
+        <v>-0.02544396180206013</v>
+      </c>
+      <c r="H28">
+        <v>4.316630048924604e-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03826660459287031</v>
+        <v>0.04583624523788143</v>
       </c>
       <c r="C29">
-        <v>-0.03116204755433998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02307025847043901</v>
+      </c>
+      <c r="D29">
+        <v>0.01097939424697525</v>
+      </c>
+      <c r="E29">
+        <v>0.04225459537543786</v>
+      </c>
+      <c r="F29">
+        <v>0.007441231302782622</v>
+      </c>
+      <c r="G29">
+        <v>0.01063251718073999</v>
+      </c>
+      <c r="H29">
+        <v>-0.091144120512115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1156678873044552</v>
+        <v>0.1307573186493552</v>
       </c>
       <c r="C30">
-        <v>-0.09964439833015899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06408991098004045</v>
+      </c>
+      <c r="D30">
+        <v>0.09309588058048494</v>
+      </c>
+      <c r="E30">
+        <v>0.04431247020391962</v>
+      </c>
+      <c r="F30">
+        <v>0.01127398259390474</v>
+      </c>
+      <c r="G30">
+        <v>-0.03026387269432301</v>
+      </c>
+      <c r="H30">
+        <v>0.03380339817673383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03931208941119645</v>
+        <v>0.0445931758165978</v>
       </c>
       <c r="C31">
-        <v>-0.02121029191941437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01119712016595568</v>
+      </c>
+      <c r="D31">
+        <v>0.02667661994506875</v>
+      </c>
+      <c r="E31">
+        <v>0.02428729050833006</v>
+      </c>
+      <c r="F31">
+        <v>0.01221891964549425</v>
+      </c>
+      <c r="G31">
+        <v>0.0217395051877761</v>
+      </c>
+      <c r="H31">
+        <v>-0.07119542777425497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03625231938678843</v>
+        <v>0.03309376792931111</v>
       </c>
       <c r="C32">
-        <v>-0.02285084961378027</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01145541833889544</v>
+      </c>
+      <c r="D32">
+        <v>0.0111964498083263</v>
+      </c>
+      <c r="E32">
+        <v>0.07112649244519562</v>
+      </c>
+      <c r="F32">
+        <v>-0.001618496620418742</v>
+      </c>
+      <c r="G32">
+        <v>-0.03361707478051579</v>
+      </c>
+      <c r="H32">
+        <v>-0.04771582083214085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07431522732956959</v>
+        <v>0.08873467014402313</v>
       </c>
       <c r="C33">
-        <v>-0.04668056941836863</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.0290264581391277</v>
+      </c>
+      <c r="D33">
+        <v>0.05927027026400603</v>
+      </c>
+      <c r="E33">
+        <v>0.01660143959413533</v>
+      </c>
+      <c r="F33">
+        <v>0.007433221369726723</v>
+      </c>
+      <c r="G33">
+        <v>0.01579266745192034</v>
+      </c>
+      <c r="H33">
+        <v>-0.06183379327633032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05237508648966872</v>
+        <v>0.05840908570617144</v>
       </c>
       <c r="C34">
-        <v>-0.03312905219848681</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01693786319689293</v>
+      </c>
+      <c r="D34">
+        <v>0.05942609950211152</v>
+      </c>
+      <c r="E34">
+        <v>0.003401773742772067</v>
+      </c>
+      <c r="F34">
+        <v>0.02132920623421746</v>
+      </c>
+      <c r="G34">
+        <v>-0.00152885838894933</v>
+      </c>
+      <c r="H34">
+        <v>-0.04872057324944051</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03595452643093917</v>
+        <v>0.04069913237047485</v>
       </c>
       <c r="C35">
-        <v>-0.01249220992932846</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.004902697976484341</v>
+      </c>
+      <c r="D35">
+        <v>0.01404412268838093</v>
+      </c>
+      <c r="E35">
+        <v>0.0206806796416792</v>
+      </c>
+      <c r="F35">
+        <v>-0.007011319300117702</v>
+      </c>
+      <c r="G35">
+        <v>0.01337787060640961</v>
+      </c>
+      <c r="H35">
+        <v>-0.03672225183322548</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01828302961838255</v>
+        <v>0.02511968061871681</v>
       </c>
       <c r="C36">
-        <v>-0.0153045760222741</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01154271985837997</v>
+      </c>
+      <c r="D36">
+        <v>0.01843685968900352</v>
+      </c>
+      <c r="E36">
+        <v>0.04009053495700902</v>
+      </c>
+      <c r="F36">
+        <v>0.01936350381583941</v>
+      </c>
+      <c r="G36">
+        <v>0.01454182941841802</v>
+      </c>
+      <c r="H36">
+        <v>-0.05565294293879326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03762031818845375</v>
+        <v>0.04161956633435033</v>
       </c>
       <c r="C38">
-        <v>-0.006538660571003711</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0003485017149467289</v>
+      </c>
+      <c r="D38">
+        <v>0.02090426410139306</v>
+      </c>
+      <c r="E38">
+        <v>0.05889859416495598</v>
+      </c>
+      <c r="F38">
+        <v>-0.006637573536857258</v>
+      </c>
+      <c r="G38">
+        <v>-0.01562641658445589</v>
+      </c>
+      <c r="H38">
+        <v>-0.02937224613355692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0869462698960488</v>
+        <v>0.1005201689842102</v>
       </c>
       <c r="C39">
-        <v>-0.08148774399247684</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05429232782327631</v>
+      </c>
+      <c r="D39">
+        <v>0.07626213025881909</v>
+      </c>
+      <c r="E39">
+        <v>-0.01275600666831512</v>
+      </c>
+      <c r="F39">
+        <v>0.01469571991760618</v>
+      </c>
+      <c r="G39">
+        <v>-0.02104775562284074</v>
+      </c>
+      <c r="H39">
+        <v>-0.04953819367378986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0673530596335296</v>
+        <v>0.0696402192235293</v>
       </c>
       <c r="C40">
-        <v>-0.05394226540149659</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03170971767190434</v>
+      </c>
+      <c r="D40">
+        <v>0.007259460807065419</v>
+      </c>
+      <c r="E40">
+        <v>0.02101824639431143</v>
+      </c>
+      <c r="F40">
+        <v>-0.04989297202495754</v>
+      </c>
+      <c r="G40">
+        <v>-0.06840881717875291</v>
+      </c>
+      <c r="H40">
+        <v>0.09072176682618621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03934264891863119</v>
+        <v>0.04319748251407952</v>
       </c>
       <c r="C41">
-        <v>-0.01213819010916633</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.003573175260839606</v>
+      </c>
+      <c r="D41">
+        <v>0.03903591879417214</v>
+      </c>
+      <c r="E41">
+        <v>0.006526603116121745</v>
+      </c>
+      <c r="F41">
+        <v>-0.009593261818316632</v>
+      </c>
+      <c r="G41">
+        <v>-0.01325743956389589</v>
+      </c>
+      <c r="H41">
+        <v>-0.04251204774108981</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04408622433696718</v>
+        <v>0.05288472066862449</v>
       </c>
       <c r="C43">
-        <v>-0.02903636076284942</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01823241571367637</v>
+      </c>
+      <c r="D43">
+        <v>0.0261957972695984</v>
+      </c>
+      <c r="E43">
+        <v>0.01796760181868904</v>
+      </c>
+      <c r="F43">
+        <v>0.0110744004830402</v>
+      </c>
+      <c r="G43">
+        <v>0.005076194900212907</v>
+      </c>
+      <c r="H43">
+        <v>-0.0520924479830898</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09091552982082965</v>
+        <v>0.09145964047199481</v>
       </c>
       <c r="C44">
-        <v>-0.09609608534626139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06219771283751368</v>
+      </c>
+      <c r="D44">
+        <v>0.06102727585796711</v>
+      </c>
+      <c r="E44">
+        <v>0.1018245929975018</v>
+      </c>
+      <c r="F44">
+        <v>0.05221254994091237</v>
+      </c>
+      <c r="G44">
+        <v>-0.02482217154254391</v>
+      </c>
+      <c r="H44">
+        <v>0.02703636989025004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02526035772497498</v>
+        <v>0.02830640766644248</v>
       </c>
       <c r="C46">
-        <v>-0.01539181211997744</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.008575605824491662</v>
+      </c>
+      <c r="D46">
+        <v>0.03167607679035174</v>
+      </c>
+      <c r="E46">
+        <v>0.0190508616343891</v>
+      </c>
+      <c r="F46">
+        <v>0.01751262582446637</v>
+      </c>
+      <c r="G46">
+        <v>-0.001103645845928413</v>
+      </c>
+      <c r="H46">
+        <v>-0.04190294492548247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02632030953745222</v>
+        <v>0.02938692003222156</v>
       </c>
       <c r="C47">
-        <v>-0.02146525929455814</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01382668136130027</v>
+      </c>
+      <c r="D47">
+        <v>0.01292453856012789</v>
+      </c>
+      <c r="E47">
+        <v>0.048498730039348</v>
+      </c>
+      <c r="F47">
+        <v>0.01165392403464433</v>
+      </c>
+      <c r="G47">
+        <v>0.03454623336924233</v>
+      </c>
+      <c r="H47">
+        <v>-0.03646693324575095</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02843074899038473</v>
+        <v>0.03397283667114688</v>
       </c>
       <c r="C48">
-        <v>-0.01998285932703536</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01205207639347588</v>
+      </c>
+      <c r="D48">
+        <v>0.03191833921257617</v>
+      </c>
+      <c r="E48">
+        <v>0.04130243753457386</v>
+      </c>
+      <c r="F48">
+        <v>0.00752651056729575</v>
+      </c>
+      <c r="G48">
+        <v>-0.006845852007784614</v>
+      </c>
+      <c r="H48">
+        <v>-0.05707697003019321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1536753671154334</v>
+        <v>0.1824439731737134</v>
       </c>
       <c r="C49">
-        <v>-0.08825298403697389</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05396343723485884</v>
+      </c>
+      <c r="D49">
+        <v>0.02207456721860666</v>
+      </c>
+      <c r="E49">
+        <v>-0.1272147185999575</v>
+      </c>
+      <c r="F49">
+        <v>0.03859530685207722</v>
+      </c>
+      <c r="G49">
+        <v>0.04776928462076496</v>
+      </c>
+      <c r="H49">
+        <v>0.2628011502969009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03466864708524724</v>
+        <v>0.04328559142016918</v>
       </c>
       <c r="C50">
-        <v>-0.02642807800907412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01968373701378666</v>
+      </c>
+      <c r="D50">
+        <v>0.0340682603833952</v>
+      </c>
+      <c r="E50">
+        <v>0.04912112453525023</v>
+      </c>
+      <c r="F50">
+        <v>0.02078849682850382</v>
+      </c>
+      <c r="G50">
+        <v>0.01464602692543973</v>
+      </c>
+      <c r="H50">
+        <v>-0.07578766881743815</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02448659185435934</v>
+        <v>0.02656493895393245</v>
       </c>
       <c r="C51">
-        <v>-0.01438516763285857</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.009175181698170399</v>
+      </c>
+      <c r="D51">
+        <v>0.02310656341074867</v>
+      </c>
+      <c r="E51">
+        <v>0.01646737912378659</v>
+      </c>
+      <c r="F51">
+        <v>0.01170444967828344</v>
+      </c>
+      <c r="G51">
+        <v>-0.004705741613156291</v>
+      </c>
+      <c r="H51">
+        <v>-0.01119253011908596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1401757021145023</v>
+        <v>0.1588300654846886</v>
       </c>
       <c r="C53">
-        <v>-0.09256602073969346</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.0616228492952272</v>
+      </c>
+      <c r="D53">
+        <v>0.02202476801719044</v>
+      </c>
+      <c r="E53">
+        <v>-0.03759779309248289</v>
+      </c>
+      <c r="F53">
+        <v>0.0160169253890266</v>
+      </c>
+      <c r="G53">
+        <v>0.001155004951781766</v>
+      </c>
+      <c r="H53">
+        <v>-0.1554261198683404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05252191515803083</v>
+        <v>0.05615231834152348</v>
       </c>
       <c r="C54">
-        <v>-0.02674025488671691</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01269656093838314</v>
+      </c>
+      <c r="D54">
+        <v>0.02896149804822216</v>
+      </c>
+      <c r="E54">
+        <v>0.04741578636632344</v>
+      </c>
+      <c r="F54">
+        <v>0.01203756372218181</v>
+      </c>
+      <c r="G54">
+        <v>-0.006618970588028293</v>
+      </c>
+      <c r="H54">
+        <v>-0.06075332071204688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09288451168129298</v>
+        <v>0.09959728777047568</v>
       </c>
       <c r="C55">
-        <v>-0.06206044731781599</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.039242473293994</v>
+      </c>
+      <c r="D55">
+        <v>0.02863343008692637</v>
+      </c>
+      <c r="E55">
+        <v>0.009061511333047395</v>
+      </c>
+      <c r="F55">
+        <v>0.01379678957326251</v>
+      </c>
+      <c r="G55">
+        <v>-0.003861281713354976</v>
+      </c>
+      <c r="H55">
+        <v>-0.1438205972324784</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1394757410402395</v>
+        <v>0.1583806571605591</v>
       </c>
       <c r="C56">
-        <v>-0.1051069297813555</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07121920249723575</v>
+      </c>
+      <c r="D56">
+        <v>0.01677285123015674</v>
+      </c>
+      <c r="E56">
+        <v>-0.03785568706376444</v>
+      </c>
+      <c r="F56">
+        <v>0.03632393937898917</v>
+      </c>
+      <c r="G56">
+        <v>0.01074354209498496</v>
+      </c>
+      <c r="H56">
+        <v>-0.1601649176285251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1186468820702981</v>
+        <v>0.1011311135240092</v>
       </c>
       <c r="C58">
-        <v>-0.02246434805990401</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.01967080365888003</v>
+      </c>
+      <c r="D58">
+        <v>0.05556679067535546</v>
+      </c>
+      <c r="E58">
+        <v>0.1833254512532589</v>
+      </c>
+      <c r="F58">
+        <v>0.01598121686019022</v>
+      </c>
+      <c r="G58">
+        <v>0.04865973369751148</v>
+      </c>
+      <c r="H58">
+        <v>0.1714374840684265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.116758928829435</v>
+        <v>0.1479556813077456</v>
       </c>
       <c r="C59">
-        <v>-0.0852517464308498</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08023435339088711</v>
+      </c>
+      <c r="D59">
+        <v>-0.3578748859325557</v>
+      </c>
+      <c r="E59">
+        <v>0.04514765257223408</v>
+      </c>
+      <c r="F59">
+        <v>-0.003658660439446775</v>
+      </c>
+      <c r="G59">
+        <v>0.04392363521682068</v>
+      </c>
+      <c r="H59">
+        <v>0.003432829959681581</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1890946637806628</v>
+        <v>0.2224637661352203</v>
       </c>
       <c r="C60">
-        <v>-0.117123930299308</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.0771540909935135</v>
+      </c>
+      <c r="D60">
+        <v>0.02843832989044171</v>
+      </c>
+      <c r="E60">
+        <v>-0.07229082435907745</v>
+      </c>
+      <c r="F60">
+        <v>0.05183032650866499</v>
+      </c>
+      <c r="G60">
+        <v>-0.0248301339878472</v>
+      </c>
+      <c r="H60">
+        <v>0.1641936189736616</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0748674038469017</v>
+        <v>0.08540574079873862</v>
       </c>
       <c r="C61">
-        <v>-0.06152756521678608</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04069083091415476</v>
+      </c>
+      <c r="D61">
+        <v>0.0577302058682849</v>
+      </c>
+      <c r="E61">
+        <v>-0.01648756924829999</v>
+      </c>
+      <c r="F61">
+        <v>0.009535915314544055</v>
+      </c>
+      <c r="G61">
+        <v>0.01388117243798326</v>
+      </c>
+      <c r="H61">
+        <v>-0.06704270695792411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1214041280303478</v>
+        <v>0.1392584965032615</v>
       </c>
       <c r="C62">
-        <v>-0.07999075178760062</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05289821648299161</v>
+      </c>
+      <c r="D62">
+        <v>0.02356818670675436</v>
+      </c>
+      <c r="E62">
+        <v>-0.05383057849273972</v>
+      </c>
+      <c r="F62">
+        <v>0.01175616464135317</v>
+      </c>
+      <c r="G62">
+        <v>-0.0317026033476077</v>
+      </c>
+      <c r="H62">
+        <v>-0.1521311531843254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05086007109076376</v>
+        <v>0.05094912973154909</v>
       </c>
       <c r="C63">
-        <v>-0.03123059463790148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01613494301208605</v>
+      </c>
+      <c r="D63">
+        <v>0.02666696183863158</v>
+      </c>
+      <c r="E63">
+        <v>0.04936741799108094</v>
+      </c>
+      <c r="F63">
+        <v>0.006173674535327039</v>
+      </c>
+      <c r="G63">
+        <v>-0.03628499439793363</v>
+      </c>
+      <c r="H63">
+        <v>-0.08452497741127415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1043080381033958</v>
+        <v>0.1115262765856321</v>
       </c>
       <c r="C64">
-        <v>-0.0418898189234554</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01487238934353858</v>
+      </c>
+      <c r="D64">
+        <v>0.05315756273611773</v>
+      </c>
+      <c r="E64">
+        <v>0.02458138804488546</v>
+      </c>
+      <c r="F64">
+        <v>0.05179933947349401</v>
+      </c>
+      <c r="G64">
+        <v>-0.02733025006046642</v>
+      </c>
+      <c r="H64">
+        <v>-0.07039135701829542</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1131605567202744</v>
+        <v>0.1238141452489175</v>
       </c>
       <c r="C65">
-        <v>-0.06638272026996749</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04020067703604018</v>
+      </c>
+      <c r="D65">
+        <v>0.005171207070551539</v>
+      </c>
+      <c r="E65">
+        <v>0.002625395695064375</v>
+      </c>
+      <c r="F65">
+        <v>0.06390646308399611</v>
+      </c>
+      <c r="G65">
+        <v>-0.03460087589933714</v>
+      </c>
+      <c r="H65">
+        <v>0.09101192323090326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1338502200703493</v>
+        <v>0.1516740982472456</v>
       </c>
       <c r="C66">
-        <v>-0.09139923350344813</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05532820168856172</v>
+      </c>
+      <c r="D66">
+        <v>0.113316338161083</v>
+      </c>
+      <c r="E66">
+        <v>-0.05039200600121879</v>
+      </c>
+      <c r="F66">
+        <v>0.03010814312320194</v>
+      </c>
+      <c r="G66">
+        <v>-0.02533733742051466</v>
+      </c>
+      <c r="H66">
+        <v>-0.1207420318956038</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06990235396653863</v>
+        <v>0.07765681209029528</v>
       </c>
       <c r="C67">
-        <v>-0.02036421322779961</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.006781369220767264</v>
+      </c>
+      <c r="D67">
+        <v>0.03091789764054613</v>
+      </c>
+      <c r="E67">
+        <v>0.02756940488738604</v>
+      </c>
+      <c r="F67">
+        <v>0.0150855873680067</v>
+      </c>
+      <c r="G67">
+        <v>0.005682315899486852</v>
+      </c>
+      <c r="H67">
+        <v>-0.02593982621589676</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05956789874364631</v>
+        <v>0.06889920240449639</v>
       </c>
       <c r="C68">
-        <v>-0.05004122836613741</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04792483625938199</v>
+      </c>
+      <c r="D68">
+        <v>-0.2649257944131796</v>
+      </c>
+      <c r="E68">
+        <v>0.04911094643679451</v>
+      </c>
+      <c r="F68">
+        <v>0.01119351531459953</v>
+      </c>
+      <c r="G68">
+        <v>0.01253481381195406</v>
+      </c>
+      <c r="H68">
+        <v>-0.02343708607590368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04810331724195238</v>
+        <v>0.04724737269971654</v>
       </c>
       <c r="C69">
-        <v>-0.02245685656392306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.007312649134596885</v>
+      </c>
+      <c r="D69">
+        <v>0.02113273685755754</v>
+      </c>
+      <c r="E69">
+        <v>0.02452166385779015</v>
+      </c>
+      <c r="F69">
+        <v>-0.004333259720774182</v>
+      </c>
+      <c r="G69">
+        <v>0.008756881032236081</v>
+      </c>
+      <c r="H69">
+        <v>-0.06380329957765267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005044310895927851</v>
+        <v>0.01971022136387438</v>
       </c>
       <c r="C70">
-        <v>0.003207071631186279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0004374410936847833</v>
+      </c>
+      <c r="D70">
+        <v>-0.0005937460288050593</v>
+      </c>
+      <c r="E70">
+        <v>-0.0273785450050294</v>
+      </c>
+      <c r="F70">
+        <v>0.01671636110793197</v>
+      </c>
+      <c r="G70">
+        <v>0.01757143509956128</v>
+      </c>
+      <c r="H70">
+        <v>0.05496404667809198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06273838199324615</v>
+        <v>0.0729997656326488</v>
       </c>
       <c r="C71">
-        <v>-0.04774292465552996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04640401939694118</v>
+      </c>
+      <c r="D71">
+        <v>-0.2950272703818704</v>
+      </c>
+      <c r="E71">
+        <v>0.04632757849720204</v>
+      </c>
+      <c r="F71">
+        <v>0.03801194070100185</v>
+      </c>
+      <c r="G71">
+        <v>0.009320503993882063</v>
+      </c>
+      <c r="H71">
+        <v>-0.01408768950509072</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1349309932619593</v>
+        <v>0.1543455098066506</v>
       </c>
       <c r="C72">
-        <v>-0.07151015650445329</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04275614599626656</v>
+      </c>
+      <c r="D72">
+        <v>0.002072916855766967</v>
+      </c>
+      <c r="E72">
+        <v>-0.09599848110662713</v>
+      </c>
+      <c r="F72">
+        <v>-0.1601771227721966</v>
+      </c>
+      <c r="G72">
+        <v>-0.1136321463533793</v>
+      </c>
+      <c r="H72">
+        <v>-0.01420616749830262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2498041995800058</v>
+        <v>0.2803378724785749</v>
       </c>
       <c r="C73">
-        <v>-0.1411160341993715</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07701732375784752</v>
+      </c>
+      <c r="D73">
+        <v>0.09165819151986751</v>
+      </c>
+      <c r="E73">
+        <v>-0.1809785578787205</v>
+      </c>
+      <c r="F73">
+        <v>0.08957455040067733</v>
+      </c>
+      <c r="G73">
+        <v>0.1902815504943678</v>
+      </c>
+      <c r="H73">
+        <v>0.5545676677132004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0733248402362791</v>
+        <v>0.08810179619525542</v>
       </c>
       <c r="C74">
-        <v>-0.08346854664516375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06251589516776708</v>
+      </c>
+      <c r="D74">
+        <v>0.02876370690581401</v>
+      </c>
+      <c r="E74">
+        <v>-0.005638969640963749</v>
+      </c>
+      <c r="F74">
+        <v>-0.01218643409500855</v>
+      </c>
+      <c r="G74">
+        <v>0.03532515960994839</v>
+      </c>
+      <c r="H74">
+        <v>-0.1287944838687303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09363530487235318</v>
+        <v>0.102115513381566</v>
       </c>
       <c r="C75">
-        <v>-0.05998169877869022</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03136529377656298</v>
+      </c>
+      <c r="D75">
+        <v>0.009027510933869356</v>
+      </c>
+      <c r="E75">
+        <v>-0.0001222109975480714</v>
+      </c>
+      <c r="F75">
+        <v>0.04248801384146907</v>
+      </c>
+      <c r="G75">
+        <v>0.0167253539035994</v>
+      </c>
+      <c r="H75">
+        <v>-0.1228330721997911</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1177966523136364</v>
+        <v>0.1329290266092606</v>
       </c>
       <c r="C76">
-        <v>-0.098547271872631</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06732671235499003</v>
+      </c>
+      <c r="D76">
+        <v>0.05122238995446644</v>
+      </c>
+      <c r="E76">
+        <v>0.01348545734359667</v>
+      </c>
+      <c r="F76">
+        <v>0.05754699305061751</v>
+      </c>
+      <c r="G76">
+        <v>0.004548595075196636</v>
+      </c>
+      <c r="H76">
+        <v>-0.1618158580615497</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1165896120422506</v>
+        <v>0.1140696777381043</v>
       </c>
       <c r="C77">
-        <v>-0.05172331669899778</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.01592861604667192</v>
+      </c>
+      <c r="D77">
+        <v>0.01582386570709995</v>
+      </c>
+      <c r="E77">
+        <v>-0.01458064386952372</v>
+      </c>
+      <c r="F77">
+        <v>0.2295882808862114</v>
+      </c>
+      <c r="G77">
+        <v>-0.8849248113797689</v>
+      </c>
+      <c r="H77">
+        <v>0.1490911085924328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0884201726728789</v>
+        <v>0.1158513465229626</v>
       </c>
       <c r="C78">
-        <v>-0.04856005315444357</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03373513886473308</v>
+      </c>
+      <c r="D78">
+        <v>0.09145681100411185</v>
+      </c>
+      <c r="E78">
+        <v>0.05951634579692814</v>
+      </c>
+      <c r="F78">
+        <v>0.01433276747445402</v>
+      </c>
+      <c r="G78">
+        <v>-0.03718614733654906</v>
+      </c>
+      <c r="H78">
+        <v>0.1037875280316046</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1381217254762628</v>
+        <v>0.1508521454908374</v>
       </c>
       <c r="C79">
-        <v>-0.1004866939936623</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.0603788892954151</v>
+      </c>
+      <c r="D79">
+        <v>0.02780202486384594</v>
+      </c>
+      <c r="E79">
+        <v>-0.02377590784967156</v>
+      </c>
+      <c r="F79">
+        <v>0.01638859491675541</v>
+      </c>
+      <c r="G79">
+        <v>0.01796220178066138</v>
+      </c>
+      <c r="H79">
+        <v>-0.1580150319134767</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03984396430702745</v>
+        <v>0.03976110728572664</v>
       </c>
       <c r="C80">
-        <v>-0.018384039426288</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007253934482310743</v>
+      </c>
+      <c r="D80">
+        <v>0.02804501300000534</v>
+      </c>
+      <c r="E80">
+        <v>-0.003180501308364372</v>
+      </c>
+      <c r="F80">
+        <v>-0.01768725271483062</v>
+      </c>
+      <c r="G80">
+        <v>0.04042813864236175</v>
+      </c>
+      <c r="H80">
+        <v>-0.04452025251870796</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1116133191550766</v>
+        <v>0.1187875361222979</v>
       </c>
       <c r="C81">
-        <v>-0.07056597982729879</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.0382682534828948</v>
+      </c>
+      <c r="D81">
+        <v>0.02992942697043125</v>
+      </c>
+      <c r="E81">
+        <v>-0.0008656756817634382</v>
+      </c>
+      <c r="F81">
+        <v>0.02327633356372209</v>
+      </c>
+      <c r="G81">
+        <v>0.05276004105715219</v>
+      </c>
+      <c r="H81">
+        <v>-0.1794170523570283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1192724569252105</v>
+        <v>0.127185261229429</v>
       </c>
       <c r="C82">
-        <v>-0.08659146403675501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05387835393386421</v>
+      </c>
+      <c r="D82">
+        <v>0.03213309625785294</v>
+      </c>
+      <c r="E82">
+        <v>-0.01737319415712116</v>
+      </c>
+      <c r="F82">
+        <v>0.05521771185972775</v>
+      </c>
+      <c r="G82">
+        <v>0.05100735634507771</v>
+      </c>
+      <c r="H82">
+        <v>-0.1737451031411514</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07157578494611685</v>
+        <v>0.07758805959932544</v>
       </c>
       <c r="C83">
-        <v>-0.01250440409784216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.006123487693623415</v>
+      </c>
+      <c r="D83">
+        <v>0.05077170101995054</v>
+      </c>
+      <c r="E83">
+        <v>0.01422498528386954</v>
+      </c>
+      <c r="F83">
+        <v>0.03832122289943993</v>
+      </c>
+      <c r="G83">
+        <v>0.09847055467902355</v>
+      </c>
+      <c r="H83">
+        <v>0.03698113725439542</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02580808523348263</v>
+        <v>0.03758203679459977</v>
       </c>
       <c r="C84">
-        <v>-0.0245260421295562</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02097375704217935</v>
+      </c>
+      <c r="D84">
+        <v>0.036175813672995</v>
+      </c>
+      <c r="E84">
+        <v>0.02271363973811661</v>
+      </c>
+      <c r="F84">
+        <v>-0.0497503089503679</v>
+      </c>
+      <c r="G84">
+        <v>0.06011717138732441</v>
+      </c>
+      <c r="H84">
+        <v>-0.01780321719824815</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1149928244731382</v>
+        <v>0.1174025852552881</v>
       </c>
       <c r="C85">
-        <v>-0.06713683707492092</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03255598840830716</v>
+      </c>
+      <c r="D85">
+        <v>0.02737060333003397</v>
+      </c>
+      <c r="E85">
+        <v>0.005557585558468328</v>
+      </c>
+      <c r="F85">
+        <v>0.05735040413005081</v>
+      </c>
+      <c r="G85">
+        <v>0.01778045591763091</v>
+      </c>
+      <c r="H85">
+        <v>-0.145375907648221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04723302570392785</v>
+        <v>0.04971079308715009</v>
       </c>
       <c r="C86">
-        <v>-0.02519247377467451</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01199327674304952</v>
+      </c>
+      <c r="D86">
+        <v>0.02226136260833491</v>
+      </c>
+      <c r="E86">
+        <v>0.06100627518678849</v>
+      </c>
+      <c r="F86">
+        <v>0.01903820214238471</v>
+      </c>
+      <c r="G86">
+        <v>0.002926872453342347</v>
+      </c>
+      <c r="H86">
+        <v>-0.01648047700489329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1179714632861097</v>
+        <v>0.1210969203786394</v>
       </c>
       <c r="C87">
-        <v>-0.0785903203560764</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03923989894379949</v>
+      </c>
+      <c r="D87">
+        <v>0.06945250654074744</v>
+      </c>
+      <c r="E87">
+        <v>0.01607391301979086</v>
+      </c>
+      <c r="F87">
+        <v>0.01821199207836572</v>
+      </c>
+      <c r="G87">
+        <v>-0.09990335023956956</v>
+      </c>
+      <c r="H87">
+        <v>0.001381365549905429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05246404808814138</v>
+        <v>0.05775223089848294</v>
       </c>
       <c r="C88">
-        <v>-0.03300564909599536</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01946700705415742</v>
+      </c>
+      <c r="D88">
+        <v>0.02384815571306581</v>
+      </c>
+      <c r="E88">
+        <v>0.01874002671835725</v>
+      </c>
+      <c r="F88">
+        <v>0.009120373423544759</v>
+      </c>
+      <c r="G88">
+        <v>-0.01071125254053535</v>
+      </c>
+      <c r="H88">
+        <v>-0.066077083310804</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08472081941675214</v>
+        <v>0.1065533817773564</v>
       </c>
       <c r="C89">
-        <v>-0.07339516221754452</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07231417863344412</v>
+      </c>
+      <c r="D89">
+        <v>-0.3291265794016557</v>
+      </c>
+      <c r="E89">
+        <v>0.07686428753531477</v>
+      </c>
+      <c r="F89">
+        <v>0.06702118246763647</v>
+      </c>
+      <c r="G89">
+        <v>0.02662041496819967</v>
+      </c>
+      <c r="H89">
+        <v>0.002321341843938138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07487632192761987</v>
+        <v>0.08897868081167556</v>
       </c>
       <c r="C90">
-        <v>-0.05855105749619395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.05605607094180268</v>
+      </c>
+      <c r="D90">
+        <v>-0.3052887422234191</v>
+      </c>
+      <c r="E90">
+        <v>0.06263120891153941</v>
+      </c>
+      <c r="F90">
+        <v>-0.002725965188434934</v>
+      </c>
+      <c r="G90">
+        <v>0.005124878313329828</v>
+      </c>
+      <c r="H90">
+        <v>-0.02101091021481532</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07806199775599248</v>
+        <v>0.08654952134606129</v>
       </c>
       <c r="C91">
-        <v>-0.06511737880455735</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04152925495975095</v>
+      </c>
+      <c r="D91">
+        <v>0.02391420315779129</v>
+      </c>
+      <c r="E91">
+        <v>0.01514017720870661</v>
+      </c>
+      <c r="F91">
+        <v>0.004787100730319339</v>
+      </c>
+      <c r="G91">
+        <v>0.04191096253391978</v>
+      </c>
+      <c r="H91">
+        <v>-0.08714146413302416</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08575591151753888</v>
+        <v>0.1002273685892771</v>
       </c>
       <c r="C92">
-        <v>-0.07340963330448416</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06740104899956546</v>
+      </c>
+      <c r="D92">
+        <v>-0.3437550300217647</v>
+      </c>
+      <c r="E92">
+        <v>0.05281484531903585</v>
+      </c>
+      <c r="F92">
+        <v>0.03094340130755959</v>
+      </c>
+      <c r="G92">
+        <v>0.001083649903634666</v>
+      </c>
+      <c r="H92">
+        <v>-0.01906454420184455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0686752464487405</v>
+        <v>0.08662698776212784</v>
       </c>
       <c r="C93">
-        <v>-0.06277976525418648</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06340309396951456</v>
+      </c>
+      <c r="D93">
+        <v>-0.3013486865153034</v>
+      </c>
+      <c r="E93">
+        <v>0.03641846010941396</v>
+      </c>
+      <c r="F93">
+        <v>0.04082858653007154</v>
+      </c>
+      <c r="G93">
+        <v>-0.0001508241216521343</v>
+      </c>
+      <c r="H93">
+        <v>0.01033103650675998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.124589235651583</v>
+        <v>0.1277586119575453</v>
       </c>
       <c r="C94">
-        <v>-0.07378585424806179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03427519490014568</v>
+      </c>
+      <c r="D94">
+        <v>0.05147694413109487</v>
+      </c>
+      <c r="E94">
+        <v>-0.02030613289365545</v>
+      </c>
+      <c r="F94">
+        <v>0.02544401422399608</v>
+      </c>
+      <c r="G94">
+        <v>0.04328667566536656</v>
+      </c>
+      <c r="H94">
+        <v>-0.09389585124072962</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1117779961262809</v>
+        <v>0.1211711436152753</v>
       </c>
       <c r="C95">
-        <v>-0.05412927426657575</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02241057948074143</v>
+      </c>
+      <c r="D95">
+        <v>0.06308972259097391</v>
+      </c>
+      <c r="E95">
+        <v>-0.01226981538023166</v>
+      </c>
+      <c r="F95">
+        <v>0.02645204831898028</v>
+      </c>
+      <c r="G95">
+        <v>0.01138872609031891</v>
+      </c>
+      <c r="H95">
+        <v>-0.01223562884347768</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2011796667001314</v>
+        <v>0.219012923754647</v>
       </c>
       <c r="C97">
-        <v>-0.06479257639245231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.02169838398175335</v>
+      </c>
+      <c r="D97">
+        <v>-0.04616602830391831</v>
+      </c>
+      <c r="E97">
+        <v>-0.1885326522056246</v>
+      </c>
+      <c r="F97">
+        <v>-0.8919414633451521</v>
+      </c>
+      <c r="G97">
+        <v>-0.1670921296194244</v>
+      </c>
+      <c r="H97">
+        <v>0.004402544163532782</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2404680640199967</v>
+        <v>0.2682716014674462</v>
       </c>
       <c r="C98">
-        <v>-0.105378491210908</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.04879713016230726</v>
+      </c>
+      <c r="D98">
+        <v>0.06010780642982748</v>
+      </c>
+      <c r="E98">
+        <v>-0.1556059754322791</v>
+      </c>
+      <c r="F98">
+        <v>0.05443482813439957</v>
+      </c>
+      <c r="G98">
+        <v>0.2662170808134239</v>
+      </c>
+      <c r="H98">
+        <v>0.2044452180256835</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5328568425513377</v>
+        <v>0.3283408707571752</v>
       </c>
       <c r="C99">
-        <v>0.8349833332060914</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9315177610184302</v>
+      </c>
+      <c r="D99">
+        <v>-0.0763430086952992</v>
+      </c>
+      <c r="E99">
+        <v>0.04380270621341227</v>
+      </c>
+      <c r="F99">
+        <v>0.04322951578428606</v>
+      </c>
+      <c r="G99">
+        <v>0.01281590314136531</v>
+      </c>
+      <c r="H99">
+        <v>-0.04472640363312495</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03834349962674146</v>
+        <v>0.04593773809393799</v>
       </c>
       <c r="C101">
-        <v>-0.03116715700798503</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02315536179037632</v>
+      </c>
+      <c r="D101">
+        <v>0.01148012576609806</v>
+      </c>
+      <c r="E101">
+        <v>0.04145909295192138</v>
+      </c>
+      <c r="F101">
+        <v>0.006934192518113212</v>
+      </c>
+      <c r="G101">
+        <v>0.01074298089494185</v>
+      </c>
+      <c r="H101">
+        <v>-0.09032775521017984</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
